--- a/Codificacion/Semana14/dados.xlsx
+++ b/Codificacion/Semana14/dados.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Profesor\Desktop\2024-11-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Documents\GitHub\Programacion-I-2024-2C-TT-C5-P\Codificacion\Semana14\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D74DF1-F16C-4A60-BC39-43BA1F3AF5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="DADOS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,22 +161,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -459,10 +460,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -815,22 +816,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:N39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="5.28515625" customWidth="1"/>
     <col min="4" max="10" width="1.28515625" customWidth="1"/>
-    <col min="11" max="12" width="5.28515625" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="14" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -839,7 +841,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -847,8 +849,11 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -857,8 +862,8 @@
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="11"/>
       <c r="F6" s="2"/>
@@ -866,8 +871,11 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -876,7 +884,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -884,9 +892,12 @@
       <c r="H8" s="8"/>
       <c r="I8" s="12"/>
       <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -894,8 +905,11 @@
       <c r="H10" s="2"/>
       <c r="I10" s="11"/>
       <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -904,7 +918,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="7"/>
       <c r="E12" s="12"/>
       <c r="F12" s="8"/>
@@ -912,226 +926,247 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="9"/>
-    </row>
-    <row r="16" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="13"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="L17">
+      <c r="M12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="13"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="M15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="L18">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="M16">
         <v>1.3</v>
       </c>
     </row>
-    <row r="19" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="24"/>
-      <c r="L19">
+    <row r="17" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="24"/>
+      <c r="M17">
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="7"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D26" s="4"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D29" s="1"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="3"/>
+    <row r="18" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="3"/>
+      <c r="M19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="M20">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="7"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="M21">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="4"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="6"/>
+      <c r="L24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M24">
+        <v>1.3</v>
+      </c>
+      <c r="N24">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="3"/>
+      <c r="L27">
+        <v>0.1</v>
+      </c>
+      <c r="M27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="7"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="9"/>
       <c r="L29">
+        <v>2.1</v>
+      </c>
+      <c r="M29">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="3"/>
+      <c r="L31">
         <v>0.1</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="7"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="9"/>
-      <c r="L31">
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="L32">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="7"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="9"/>
+      <c r="L33">
         <v>2.1</v>
       </c>
-      <c r="M31">
+      <c r="M33">
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="3"/>
-      <c r="L33">
+    <row r="34" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="3"/>
+      <c r="L35">
         <v>0.1</v>
       </c>
-      <c r="M33">
+      <c r="M35">
+        <v>0.3</v>
+      </c>
+      <c r="N35">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="6"/>
-      <c r="L34">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="35" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="7"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="9"/>
-      <c r="L35">
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="7"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="9"/>
+      <c r="L37">
         <v>2.1</v>
       </c>
-      <c r="M35">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="36" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="3"/>
-      <c r="L37">
-        <v>0.1</v>
-      </c>
       <c r="M37">
-        <v>0.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="7"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="9"/>
-      <c r="L39">
-        <v>2.1</v>
-      </c>
-      <c r="M39">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N39">
         <v>2.5</v>
       </c>
     </row>
